--- a/excel/case.xlsx
+++ b/excel/case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -60,13 +60,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00AACF91"/>
       </patternFill>
     </fill>
   </fills>
@@ -416,16 +415,16 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
     <col width="9" customWidth="1" style="1" min="3" max="3"/>
     <col width="49.25" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="35.875" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="35.83203125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
     <col width="16.25" customWidth="1" style="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -664,12 +663,12 @@
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>退出1</t>
+          <t>退出</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -723,14 +722,14 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col width="13.5" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="16.875" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
+    <col width="16.83203125" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
